--- a/Outros Programas/Produtos.xlsx
+++ b/Outros Programas/Produtos.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iconectados-my.sharepoint.com/personal/marcelo_caprari_itau-unibanco_com_br/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\GitHub\MeusProjetos\Python\Outros Programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC10489C219866225BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C2FD0B5-E049-4EE1-B5ED-FBB673E0C3CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A6FCD-AB5E-47FD-B5B0-81AA9C78C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$13</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -456,10 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -524,7 +526,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,7 +562,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -578,7 +580,7 @@
         <v>3520.0000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -614,7 +616,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -632,7 +634,7 @@
         <v>13.200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -652,7 +654,7 @@
       <c r="F10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -713,6 +715,13 @@
       <c r="H13" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Serviço"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
